--- a/experiment/RUN_ME/stimuli/word_lists/practice_art_primes.xlsx
+++ b/experiment/RUN_ME/stimuli/word_lists/practice_art_primes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\development\stimuli\word_lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\university\mudrick_lab\subliminal_priming_w_motion_capture\experiment\RUN_ME\stimuli\word_lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24D7EC94-AC11-4EBF-BDE4-CDDE4673C5EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E1BD5BB-79E3-49FC-B32F-0F1E1F26494D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1095" windowWidth="18900" windowHeight="11055" xr2:uid="{A99B31C6-07C4-489A-8DD5-D27C63FC0D70}"/>
+    <workbookView xWindow="3930" yWindow="3930" windowWidth="18900" windowHeight="11055" xr2:uid="{A99B31C6-07C4-489A-8DD5-D27C63FC0D70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="20">
-  <si>
-    <t>אבוקה</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="20">
   <si>
     <t>שטרות</t>
   </si>
@@ -74,9 +71,6 @@
     <t>אגורה</t>
   </si>
   <si>
-    <t>בריכה</t>
-  </si>
-  <si>
     <t>מכונה</t>
   </si>
   <si>
@@ -96,6 +90,12 @@
   </si>
   <si>
     <t>חיתול</t>
+  </si>
+  <si>
+    <t>מסגרת</t>
+  </si>
+  <si>
+    <t>מבחנה</t>
   </si>
 </sst>
 </file>
@@ -466,10 +466,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.375" style="1" bestFit="1" customWidth="1"/>
@@ -482,722 +484,710 @@
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="J21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="N21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="O21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="R21" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
